--- a/LGC_Motiv_results/summary_participants_infos.xlsx
+++ b/LGC_Motiv_results/summary_participants_infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42563663-E186-4134-9006-5EBC8DC00129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1FBE6-0DF7-44E5-AB08-CF6523D7A4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{973ACBFE-62E1-4B63-85AE-C8E6F8B95C54}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052DF685-B3FD-4199-9C8B-C749A8627B53}">
   <dimension ref="A1:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>

--- a/LGC_Motiv_results/summary_participants_infos.xlsx
+++ b/LGC_Motiv_results/summary_participants_infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loco\Documents\GitHub\LGC_motiv\LGC_Motiv_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C43CD90-7A49-43F8-92F0-956EF307FD5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879257C-F94C-4CA8-B541-21D1D5AD0B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{973ACBFE-62E1-4B63-85AE-C8E6F8B95C54}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{973ACBFE-62E1-4B63-85AE-C8E6F8B95C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -470,7 +478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -705,16 +713,16 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1039,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052DF685-B3FD-4199-9C8B-C749A8627B53}">
   <dimension ref="A1:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
@@ -5352,7 +5360,7 @@
         <v>1.56</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66:F97" si="2">D66/((E66)^2)</f>
+        <f t="shared" ref="F66:F73" si="2">D66/((E66)^2)</f>
         <v>23.011176857330703</v>
       </c>
       <c r="G66" s="7">
@@ -7141,7 +7149,7 @@
       <c r="U128" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:U79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U79">
     <sortCondition ref="A2:A79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
